--- a/x_shortcuts.xlsx
+++ b/x_shortcuts.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26626"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28429"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\simon\Documents\models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B5D8223B-13CD-4CE2-A516-18A7BBF7CD09}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{54A377F0-2F2D-4D3C-8711-C9E720D05CA1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-26760" yWindow="1530" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="87">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="112">
   <si>
     <t>Excel</t>
   </si>
@@ -56,9 +56,6 @@
     <t>F2</t>
   </si>
   <si>
-    <t>Console</t>
-  </si>
-  <si>
     <t>clear</t>
   </si>
   <si>
@@ -66,12 +63,6 @@
   </si>
   <si>
     <t>back</t>
-  </si>
-  <si>
-    <t>cd ..</t>
-  </si>
-  <si>
-    <t>navigae</t>
   </si>
   <si>
     <r>
@@ -310,6 +301,90 @@
   </si>
   <si>
     <t>Alt + =</t>
+  </si>
+  <si>
+    <t>navigate</t>
+  </si>
+  <si>
+    <t>ls</t>
+  </si>
+  <si>
+    <t>list content</t>
+  </si>
+  <si>
+    <t>cd ..   ../..</t>
+  </si>
+  <si>
+    <t>mkdir</t>
+  </si>
+  <si>
+    <t>make directory</t>
+  </si>
+  <si>
+    <t>generate file</t>
+  </si>
+  <si>
+    <t>pwd</t>
+  </si>
+  <si>
+    <t>bash</t>
+  </si>
+  <si>
+    <t>print path</t>
+  </si>
+  <si>
+    <t>touch name.txt</t>
+  </si>
+  <si>
+    <t>list all content, incl hidden files</t>
+  </si>
+  <si>
+    <t>orders files by time they were last modified</t>
+  </si>
+  <si>
+    <t>list content in long format</t>
+  </si>
+  <si>
+    <t>details combined</t>
+  </si>
+  <si>
+    <t>show content of a file</t>
+  </si>
+  <si>
+    <t>cp file.txt destinationfile.txt</t>
+  </si>
+  <si>
+    <t>cat file.txt</t>
+  </si>
+  <si>
+    <t>cp source.txt directory</t>
+  </si>
+  <si>
+    <t>copy to directory</t>
+  </si>
+  <si>
+    <t>copy and rename</t>
+  </si>
+  <si>
+    <t>mv my_file.txt my_directory/</t>
+  </si>
+  <si>
+    <t>moves file, can also be used to rename file</t>
+  </si>
+  <si>
+    <t>Console / Bash</t>
+  </si>
+  <si>
+    <t>delete/remove</t>
+  </si>
+  <si>
+    <t>rm file.txt</t>
+  </si>
+  <si>
+    <t>rm -r unwanted_directory</t>
+  </si>
+  <si>
+    <t>deletes directory incl childs</t>
   </si>
 </sst>
 </file>
@@ -657,7 +732,7 @@
   <dimension ref="B3:M45"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H36" sqref="H36"/>
+      <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -666,7 +741,7 @@
     <col min="3" max="3" width="22.28515625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="11.5703125" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="10.140625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="28" customWidth="1"/>
     <col min="12" max="12" width="12.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -677,7 +752,7 @@
       <c r="C3" s="1"/>
       <c r="D3" s="1"/>
       <c r="H3" s="1" t="s">
-        <v>6</v>
+        <v>107</v>
       </c>
       <c r="I3" s="1"/>
       <c r="J3" s="1"/>
@@ -688,16 +763,16 @@
     </row>
     <row r="4" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="C4" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="H4" t="s">
         <v>7</v>
       </c>
       <c r="I4" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="L4" t="s">
         <v>2</v>
@@ -708,16 +783,16 @@
     </row>
     <row r="5" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="C5" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="H5" t="s">
-        <v>9</v>
+        <v>87</v>
       </c>
       <c r="I5" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="L5" t="s">
         <v>4</v>
@@ -728,210 +803,306 @@
     </row>
     <row r="6" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="C6" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="H6" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="I6" t="s">
-        <v>12</v>
+        <v>84</v>
       </c>
     </row>
     <row r="7" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="C7" t="s">
-        <v>20</v>
+        <v>17</v>
+      </c>
+      <c r="G7" t="s">
+        <v>92</v>
+      </c>
+      <c r="H7" t="s">
+        <v>85</v>
+      </c>
+      <c r="I7" t="s">
+        <v>86</v>
       </c>
     </row>
     <row r="8" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="C8" t="s">
-        <v>25</v>
+        <v>22</v>
+      </c>
+      <c r="H8" t="s">
+        <v>88</v>
+      </c>
+      <c r="I8" t="s">
+        <v>89</v>
       </c>
     </row>
     <row r="9" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B9" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="C9" t="s">
-        <v>22</v>
+        <v>19</v>
+      </c>
+      <c r="H9" t="s">
+        <v>94</v>
+      </c>
+      <c r="I9" t="s">
+        <v>90</v>
       </c>
     </row>
     <row r="10" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B10" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="C10" t="s">
-        <v>24</v>
+        <v>21</v>
+      </c>
+      <c r="G10" t="s">
+        <v>92</v>
+      </c>
+      <c r="H10" t="s">
+        <v>91</v>
+      </c>
+      <c r="I10" t="s">
+        <v>93</v>
       </c>
     </row>
     <row r="11" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B11" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="C11" t="s">
-        <v>78</v>
+        <v>75</v>
+      </c>
+      <c r="H11" t="str">
+        <f>"-t"</f>
+        <v>-t</v>
+      </c>
+      <c r="I11" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="12" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="H12" t="str">
+        <f>"-a"</f>
+        <v>-a</v>
+      </c>
+      <c r="I12" t="s">
+        <v>96</v>
       </c>
     </row>
     <row r="13" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B13" s="1" t="s">
-        <v>48</v>
+        <v>45</v>
+      </c>
+      <c r="H13" t="str">
+        <f>"-l (low L)"</f>
+        <v>-l (low L)</v>
+      </c>
+      <c r="I13" t="s">
+        <v>97</v>
       </c>
     </row>
     <row r="14" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B14" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="C14" t="s">
-        <v>26</v>
+        <v>23</v>
+      </c>
+      <c r="H14" t="str">
+        <f>"-alt"</f>
+        <v>-alt</v>
+      </c>
+      <c r="I14" t="s">
+        <v>98</v>
       </c>
     </row>
     <row r="15" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B15" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="C15" t="s">
-        <v>29</v>
+        <v>26</v>
+      </c>
+      <c r="H15" t="s">
+        <v>101</v>
+      </c>
+      <c r="I15" t="s">
+        <v>99</v>
       </c>
     </row>
     <row r="16" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B16" t="s">
+        <v>29</v>
+      </c>
+      <c r="C16" t="s">
+        <v>27</v>
+      </c>
+      <c r="H16" t="s">
+        <v>100</v>
+      </c>
+      <c r="I16" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="17" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B17" t="s">
+        <v>30</v>
+      </c>
+      <c r="C17" t="s">
+        <v>28</v>
+      </c>
+      <c r="H17" t="s">
+        <v>102</v>
+      </c>
+      <c r="I17" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="18" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B18" t="s">
+        <v>31</v>
+      </c>
+      <c r="C18" t="s">
+        <v>34</v>
+      </c>
+      <c r="H18" t="s">
+        <v>105</v>
+      </c>
+      <c r="I18" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="19" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B19" t="s">
+        <v>33</v>
+      </c>
+      <c r="C19" t="s">
         <v>32</v>
       </c>
-      <c r="C16" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="17" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B17" t="s">
-        <v>33</v>
-      </c>
-      <c r="C17" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="18" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B18" t="s">
-        <v>34</v>
-      </c>
-      <c r="C18" t="s">
+      <c r="H19" t="s">
+        <v>109</v>
+      </c>
+      <c r="I19" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="20" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B20" t="s">
+        <v>35</v>
+      </c>
+      <c r="C20" t="s">
+        <v>36</v>
+      </c>
+      <c r="H20" t="s">
+        <v>110</v>
+      </c>
+      <c r="I20" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="21" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B21" t="s">
+        <v>39</v>
+      </c>
+      <c r="C21" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="19" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B19" t="s">
-        <v>36</v>
-      </c>
-      <c r="C19" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="20" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B20" t="s">
+    <row r="22" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B22" t="s">
+        <v>40</v>
+      </c>
+      <c r="C22" t="s">
         <v>38</v>
       </c>
-      <c r="C20" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="21" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B21" t="s">
+    </row>
+    <row r="23" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B23" t="s">
+        <v>41</v>
+      </c>
+      <c r="C23" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="24" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B24" t="s">
         <v>42</v>
       </c>
-      <c r="C21" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="22" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B22" t="s">
-        <v>43</v>
-      </c>
-      <c r="C22" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="23" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B23" t="s">
+      <c r="C24" t="s">
         <v>44</v>
       </c>
-      <c r="C23" t="s">
+    </row>
+    <row r="26" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B26" s="1" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="24" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B24" t="s">
-        <v>45</v>
-      </c>
-      <c r="C24" t="s">
+      <c r="C26" s="1"/>
+    </row>
+    <row r="27" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B27" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="26" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B26" s="1" t="s">
+      <c r="C27" t="s">
+        <v>48</v>
+      </c>
+      <c r="G27" s="4"/>
+    </row>
+    <row r="28" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B28" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="C28" t="s">
         <v>49</v>
       </c>
-      <c r="C26" s="1"/>
-    </row>
-    <row r="27" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B27" t="s">
-        <v>50</v>
-      </c>
-      <c r="C27" t="s">
+    </row>
+    <row r="29" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B29" t="s">
         <v>51</v>
       </c>
-      <c r="G27" s="4"/>
-    </row>
-    <row r="28" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B28" s="8" t="s">
+      <c r="C29" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="30" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B30" t="s">
         <v>53</v>
       </c>
-      <c r="C28" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="29" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B29" t="s">
+      <c r="C30" t="s">
         <v>54</v>
-      </c>
-      <c r="C29" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="30" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B30" t="s">
-        <v>56</v>
-      </c>
-      <c r="C30" t="s">
-        <v>57</v>
       </c>
       <c r="E30" s="2">
         <v>4.7916666666666663E-2</v>
       </c>
     </row>
-    <row r="31" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B31" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="C31" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="E31" s="3">
         <v>45113</v>
       </c>
     </row>
-    <row r="32" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B32" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="C32" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="E32" s="4">
         <v>12345.39222</v>
@@ -940,10 +1111,10 @@
     </row>
     <row r="33" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B33" s="3" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="C33" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="E33" s="6">
         <v>0.53</v>
@@ -958,10 +1129,10 @@
     </row>
     <row r="34" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B34" s="2" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="C34" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="E34" s="7">
         <v>123456.4</v>
@@ -969,10 +1140,10 @@
     </row>
     <row r="35" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B35" s="2" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="C35" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="E35" s="3">
         <v>123456.4</v>
@@ -980,37 +1151,37 @@
     </row>
     <row r="36" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B36" s="2" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="C36" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="E36" s="3"/>
     </row>
     <row r="37" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B37" s="2" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="C37" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="E37" s="3"/>
     </row>
     <row r="38" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B38" s="2" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="C38" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="E38" s="3"/>
     </row>
     <row r="39" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B39" s="2" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="C39" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="E39" s="3"/>
     </row>
@@ -1020,39 +1191,39 @@
     </row>
     <row r="41" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B41" s="5" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
     </row>
     <row r="42" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B42" s="2" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="C42" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
     </row>
     <row r="43" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B43" s="2" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="C43" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
     </row>
     <row r="44" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B44" s="2" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="C44" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
     </row>
     <row r="45" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B45" s="2" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="C45" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
     </row>
   </sheetData>
